--- a/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 민기.xlsx
+++ b/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 민기.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="527">
   <si>
     <t>날짜</t>
   </si>
@@ -13066,133 +13066,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>키워드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업무명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사원명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이슈제목</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>페이징</t>
     </r>
     <r>
@@ -49502,132 +49375,6 @@
   </si>
   <si>
     <r>
-      <t>EMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(empno-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">/pass- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">계정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Normal - 201910002/123456a!  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PM - 201910001/123456a!</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -52911,6 +52658,1043 @@
   </si>
   <si>
     <t xml:space="preserve">2조 테스터 : </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2조 테스터 :  최민기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키워드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업무명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이슈제목</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상동작
+다만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CEO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른점이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어려움</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불가
+파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겹쳐서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있음</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(empno-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">/pass- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">계정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Normal - 201910002/123456a!  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM - 201910001/123456a!</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미출력</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상동작</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치코드가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미출력으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치불가</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>Ｘ</t>
+  </si>
+  <si>
+    <t>Ｘ</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -53359,7 +54143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -53488,6 +54272,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -53689,6 +54476,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -53974,8 +54770,8 @@
   </sheetPr>
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L217" sqref="L217"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53996,35 +54792,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -54036,31 +54832,31 @@
       <c r="C2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="53" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="33" t="s">
         <v>128</v>
       </c>
@@ -54081,23 +54877,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="111" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>466</v>
+      <c r="F4" s="76" t="s">
+        <v>465</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>117</v>
@@ -54110,14 +54906,14 @@
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="88"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="35" t="s">
         <v>120</v>
       </c>
@@ -54129,14 +54925,14 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="88"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="35" t="s">
         <v>119</v>
       </c>
@@ -54148,14 +54944,14 @@
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="34" t="s">
         <v>121</v>
       </c>
@@ -54167,14 +54963,14 @@
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="89"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="35" t="s">
         <v>122</v>
       </c>
@@ -54186,22 +54982,22 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="75" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="100" t="s">
         <v>270</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>271</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -54211,15 +55007,15 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="89"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -54228,20 +55024,20 @@
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="54" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="75" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>273</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -54251,16 +55047,16 @@
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="88"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -54270,16 +55066,16 @@
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -54289,16 +55085,16 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="88"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -54308,16 +55104,16 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -54327,47 +55123,47 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53" t="s">
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M16" s="53"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="101" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="101" t="s">
-        <v>493</v>
+      <c r="F17" s="102" t="s">
+        <v>491</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -54377,16 +55173,16 @@
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="100"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="34" t="s">
         <v>350</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="34" t="s">
-        <v>351</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -54396,16 +55192,16 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="100"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="102"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -54415,18 +55211,18 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="100" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="101" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="102"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="103"/>
       <c r="G20" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -54436,16 +55232,16 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="102"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -54455,16 +55251,16 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="102"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -54474,16 +55270,16 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="102"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="103"/>
       <c r="G23" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -54493,16 +55289,16 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="100"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="102"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -54512,16 +55308,16 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="100"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="102"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -54531,16 +55327,16 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="100"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="102"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -54550,20 +55346,20 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="111" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="102"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="103"/>
       <c r="G27" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -54573,16 +55369,16 @@
       <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="110"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="102"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -54592,16 +55388,16 @@
       <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="110"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="102"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="103"/>
       <c r="G29" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -54611,16 +55407,16 @@
       <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="110"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="102"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="103"/>
       <c r="G30" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -54630,16 +55426,16 @@
       <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="110"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="102"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -54649,16 +55445,16 @@
       <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="102"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
@@ -54668,18 +55464,18 @@
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="55" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="102"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -54689,16 +55485,16 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="102"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="103"/>
       <c r="G34" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -54708,16 +55504,16 @@
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="102"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -54727,18 +55523,18 @@
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="110" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="111" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="102"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="103"/>
       <c r="G36" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
@@ -54748,16 +55544,16 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="110"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="102"/>
+        <v>370</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="103"/>
       <c r="G37" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -54767,16 +55563,16 @@
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="110"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="102"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
@@ -54786,16 +55582,16 @@
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="110"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="102"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="103"/>
       <c r="G39" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
@@ -54805,16 +55601,16 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="102"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="103"/>
       <c r="G40" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
@@ -54824,16 +55620,16 @@
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="102"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="103"/>
       <c r="G41" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -54843,18 +55639,18 @@
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="110" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="111" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="102"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -54864,16 +55660,16 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="110"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="102"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="103"/>
       <c r="G43" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -54883,16 +55679,16 @@
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="110"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="102"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
@@ -54902,16 +55698,16 @@
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="110"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="102"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
@@ -54921,16 +55717,16 @@
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="110"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="102"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -54940,16 +55736,16 @@
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="110"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="102"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
@@ -54959,16 +55755,16 @@
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="110"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="102"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="103"/>
       <c r="G48" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
@@ -54978,16 +55774,16 @@
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="110"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="102"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="103"/>
       <c r="G49" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
@@ -54997,16 +55793,16 @@
       <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="110"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="102"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
@@ -55016,16 +55812,16 @@
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="110"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="102"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="103"/>
       <c r="G51" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
@@ -55035,18 +55831,18 @@
       <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="55"/>
-      <c r="F52" s="102"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="103"/>
       <c r="G52" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -55056,16 +55852,16 @@
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="55"/>
-      <c r="F53" s="102"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="103"/>
       <c r="G53" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
@@ -55075,20 +55871,20 @@
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="66" t="s">
         <v>101</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="102"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="103"/>
       <c r="G54" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
@@ -55098,16 +55894,16 @@
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="55"/>
-      <c r="F55" s="102"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="103"/>
       <c r="G55" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
@@ -55117,16 +55913,16 @@
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="55"/>
-      <c r="F56" s="102"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="103"/>
       <c r="G56" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
@@ -55136,16 +55932,16 @@
       <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="102"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="103"/>
       <c r="G57" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
@@ -55155,16 +55951,16 @@
       <c r="M57" s="29"/>
     </row>
     <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="55"/>
-      <c r="F58" s="103"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="104"/>
       <c r="G58" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
@@ -55174,24 +55970,24 @@
       <c r="M58" s="29"/>
     </row>
     <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="65" t="s">
+      <c r="C59" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="75" t="s">
-        <v>465</v>
+      <c r="E59" s="56"/>
+      <c r="F59" s="76" t="s">
+        <v>464</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -55201,16 +55997,16 @@
       <c r="M59" s="29"/>
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="55"/>
-      <c r="F60" s="88"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="89"/>
       <c r="G60" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
@@ -55220,16 +56016,16 @@
       <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="88"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="89"/>
       <c r="G61" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
@@ -55239,16 +56035,16 @@
       <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="88"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="89"/>
       <c r="G62" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -55258,16 +56054,16 @@
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="66"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="88"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="89"/>
       <c r="G63" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
@@ -55277,20 +56073,20 @@
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="66"/>
-      <c r="B64" s="54" t="s">
+      <c r="A64" s="67"/>
+      <c r="B64" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="55" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="88"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="89"/>
       <c r="G64" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
@@ -55300,16 +56096,16 @@
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="66"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="88"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -55319,16 +56115,16 @@
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="66"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="55"/>
-      <c r="F66" s="88"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -55338,16 +56134,16 @@
       <c r="M66" s="29"/>
     </row>
     <row r="67" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="66"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="88"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="89"/>
       <c r="G67" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
@@ -55357,16 +56153,16 @@
       <c r="M67" s="29"/>
     </row>
     <row r="68" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="66"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="55"/>
-      <c r="F68" s="88"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
@@ -55376,16 +56172,16 @@
       <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="66"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="56"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E69" s="55"/>
-      <c r="F69" s="88"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="89"/>
       <c r="G69" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
@@ -55395,18 +56191,18 @@
       <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="66"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="86" t="s">
+      <c r="A70" s="67"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="87" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="55"/>
-      <c r="F70" s="88"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="89"/>
       <c r="G70" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -55416,16 +56212,16 @@
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="66"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="55"/>
-      <c r="F71" s="88"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="89"/>
       <c r="G71" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
@@ -55435,16 +56231,16 @@
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="66"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="55"/>
-      <c r="F72" s="88"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="89"/>
       <c r="G72" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -55454,16 +56250,16 @@
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="66"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="88"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="89"/>
       <c r="G73" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
@@ -55473,16 +56269,16 @@
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="66"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="55"/>
-      <c r="F74" s="88"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="89"/>
       <c r="G74" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
@@ -55492,16 +56288,16 @@
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="88"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="89"/>
       <c r="G75" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
@@ -55511,16 +56307,16 @@
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="66"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="88"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="89"/>
       <c r="G76" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -55530,20 +56326,20 @@
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="66"/>
-      <c r="B77" s="54" t="s">
+      <c r="A77" s="67"/>
+      <c r="B77" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="55" t="s">
         <v>150</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="55"/>
-      <c r="F77" s="88"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="89"/>
       <c r="G77" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
@@ -55553,16 +56349,16 @@
       <c r="M77" s="29"/>
     </row>
     <row r="78" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="66"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="88"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="89"/>
       <c r="G78" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -55572,16 +56368,16 @@
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="66"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E79" s="55"/>
-      <c r="F79" s="88"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="89"/>
       <c r="G79" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
@@ -55591,16 +56387,16 @@
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="66"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="55"/>
-      <c r="F80" s="88"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="89"/>
       <c r="G80" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -55610,16 +56406,16 @@
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="66"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="88"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="89"/>
       <c r="G81" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
@@ -55629,16 +56425,16 @@
       <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="67"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="56"/>
-      <c r="F82" s="89"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="90"/>
       <c r="G82" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
@@ -55648,805 +56444,885 @@
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="53" t="s">
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53" t="s">
+      <c r="I83" s="54"/>
+      <c r="J83" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M83" s="53"/>
+      <c r="M83" s="54"/>
     </row>
     <row r="84" spans="1:13" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F84" s="90" t="s">
-        <v>468</v>
+      <c r="F84" s="91" t="s">
+        <v>467</v>
       </c>
       <c r="G84" s="34" t="s">
         <v>161</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="29"/>
+      <c r="J84" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="K84" s="118" t="s">
+        <v>508</v>
+      </c>
       <c r="L84" s="16"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="55"/>
-      <c r="F85" s="90"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="91"/>
       <c r="G85" s="35" t="s">
         <v>163</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="29"/>
+      <c r="J85" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K85" s="48" t="s">
+        <v>512</v>
+      </c>
       <c r="L85" s="16"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E86" s="55"/>
-      <c r="F86" s="90"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="91"/>
       <c r="G86" s="34" t="s">
         <v>165</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="29"/>
+      <c r="J86" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K86" s="47" t="s">
+        <v>513</v>
+      </c>
       <c r="L86" s="16"/>
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
       <c r="D87" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E87" s="55"/>
-      <c r="F87" s="90"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="91"/>
       <c r="G87" s="34" t="s">
-        <v>167</v>
+        <v>505</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="29"/>
+      <c r="J87" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K87" s="47" t="s">
+        <v>514</v>
+      </c>
       <c r="L87" s="16"/>
       <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
       <c r="D88" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="56"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="E88" s="55"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="29"/>
+      <c r="J88" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K88" s="47" t="s">
+        <v>506</v>
+      </c>
       <c r="L88" s="16"/>
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
       <c r="D89" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="39" t="s">
         <v>170</v>
-      </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="39" t="s">
-        <v>171</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="29"/>
+      <c r="J89" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K89" s="47" t="s">
+        <v>507</v>
+      </c>
       <c r="L89" s="16"/>
       <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
       <c r="D90" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="39" t="s">
         <v>172</v>
-      </c>
-      <c r="E90" s="55"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="39" t="s">
-        <v>173</v>
       </c>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="29"/>
+      <c r="J90" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K90" s="47" t="s">
+        <v>509</v>
+      </c>
       <c r="L90" s="16"/>
       <c r="M90" s="29"/>
     </row>
     <row r="91" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="56"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="E91" s="55"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="29"/>
+      <c r="J91" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K91" s="47" t="s">
+        <v>510</v>
+      </c>
       <c r="L91" s="16"/>
       <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="54" t="s">
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="E92" s="56"/>
+      <c r="F92" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="G92" s="23" t="s">
         <v>177</v>
-      </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>178</v>
       </c>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="29"/>
+      <c r="J92" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K92" s="47" t="s">
+        <v>508</v>
+      </c>
       <c r="L92" s="16"/>
       <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="56"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="E93" s="55"/>
-      <c r="F93" s="91"/>
-      <c r="G93" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="29"/>
+      <c r="J93" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K93" s="47" t="s">
+        <v>511</v>
+      </c>
       <c r="L93" s="16"/>
       <c r="M93" s="29"/>
     </row>
-    <row r="94" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
+    <row r="94" spans="1:13" s="11" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="56"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="23" t="s">
         <v>181</v>
-      </c>
-      <c r="E94" s="55"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="23" t="s">
-        <v>182</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="29"/>
+      <c r="J94" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="K94" s="41" t="s">
+        <v>516</v>
+      </c>
       <c r="L94" s="16"/>
       <c r="M94" s="29"/>
     </row>
     <row r="95" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="56"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="E95" s="55"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="29"/>
+      <c r="J95" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K95" s="47" t="s">
+        <v>515</v>
+      </c>
       <c r="L95" s="16"/>
       <c r="M95" s="29"/>
     </row>
     <row r="96" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="55"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
       <c r="D96" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="56"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="E96" s="55"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="29"/>
+      <c r="J96" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K96" s="47" t="s">
+        <v>517</v>
+      </c>
       <c r="L96" s="16"/>
       <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="55"/>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="56"/>
+      <c r="B97" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="D97" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="E97" s="56"/>
+      <c r="F97" s="92" t="s">
+        <v>518</v>
+      </c>
+      <c r="G97" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="E97" s="55"/>
-      <c r="F97" s="91" t="s">
-        <v>470</v>
-      </c>
-      <c r="G97" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="29"/>
+      <c r="J97" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K97" s="118" t="s">
+        <v>509</v>
+      </c>
       <c r="L97" s="16"/>
       <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="E98" s="55"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="29"/>
+      <c r="J98" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K98" s="118" t="s">
+        <v>508</v>
+      </c>
       <c r="L98" s="16"/>
       <c r="M98" s="29"/>
     </row>
     <row r="99" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="56"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="E99" s="55"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="29"/>
+      <c r="J99" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K99" s="118" t="s">
+        <v>509</v>
+      </c>
       <c r="L99" s="16"/>
       <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="35" t="s">
         <v>195</v>
-      </c>
-      <c r="E100" s="55"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="35" t="s">
-        <v>196</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="29"/>
+      <c r="J100" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K100" s="118" t="s">
+        <v>520</v>
+      </c>
       <c r="L100" s="16"/>
       <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="56"/>
       <c r="D101" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="E101" s="55"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="29"/>
+      <c r="J101" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="K101" s="119" t="s">
+        <v>509</v>
+      </c>
       <c r="L101" s="16"/>
       <c r="M101" s="29"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
       <c r="D102" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="56"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="E102" s="55"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="25" t="s">
-        <v>200</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="29"/>
+      <c r="J102" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="K102" s="48" t="s">
+        <v>519</v>
+      </c>
       <c r="L102" s="16"/>
       <c r="M102" s="29"/>
     </row>
-    <row r="103" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
+    <row r="103" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="56"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="E103" s="55"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="23" t="s">
-        <v>202</v>
       </c>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="29"/>
+      <c r="J103" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="K103" s="48" t="s">
+        <v>521</v>
+      </c>
       <c r="L103" s="16"/>
       <c r="M103" s="29"/>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B104" s="65" t="s">
+      <c r="C104" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="D104" s="23" t="s">
+      <c r="E104" s="56"/>
+      <c r="F104" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="G104" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="E104" s="55"/>
-      <c r="F104" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>206</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="29"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="120"/>
       <c r="L104" s="16"/>
       <c r="M104" s="29"/>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
       <c r="D105" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="56"/>
+      <c r="F105" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="G105" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="E105" s="55"/>
-      <c r="F105" s="75" t="s">
-        <v>472</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="29"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="120"/>
       <c r="L105" s="16"/>
       <c r="M105" s="29"/>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
       <c r="D106" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="E106" s="55"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="23" t="s">
-        <v>210</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="29"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="120"/>
       <c r="L106" s="16"/>
       <c r="M106" s="29"/>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
       <c r="D107" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E107" s="55"/>
-      <c r="F107" s="76"/>
+        <v>210</v>
+      </c>
+      <c r="E107" s="56"/>
+      <c r="F107" s="77"/>
       <c r="G107" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="29"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="120"/>
       <c r="L107" s="16"/>
       <c r="M107" s="29"/>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
       <c r="D108" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E108" s="56"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="E108" s="55"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="29"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="120"/>
       <c r="L108" s="16"/>
       <c r="M108" s="29"/>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
       <c r="D109" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" s="56"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="E109" s="55"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="29"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="120"/>
       <c r="L109" s="16"/>
       <c r="M109" s="29"/>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
       <c r="D110" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="56"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="25" t="s">
         <v>216</v>
-      </c>
-      <c r="E110" s="55"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="25" t="s">
-        <v>217</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="29"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="120"/>
       <c r="L110" s="16"/>
       <c r="M110" s="29"/>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" s="56"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="E111" s="55"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="29"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="120"/>
       <c r="L111" s="16"/>
       <c r="M111" s="29"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
       <c r="D112" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="56"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="E112" s="55"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="29"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="120"/>
       <c r="L112" s="16"/>
       <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
       <c r="D113" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="56"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="23" t="s">
         <v>222</v>
-      </c>
-      <c r="E113" s="55"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="29"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="120"/>
       <c r="L113" s="16"/>
       <c r="M113" s="29"/>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="66"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
       <c r="D114" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" s="56"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="23" t="s">
         <v>224</v>
-      </c>
-      <c r="E114" s="55"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="23" t="s">
-        <v>225</v>
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="29"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="120"/>
       <c r="L114" s="16"/>
       <c r="M114" s="29"/>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="66"/>
-      <c r="B115" s="65" t="s">
+      <c r="A115" s="67"/>
+      <c r="B115" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C115" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E115" s="55"/>
-      <c r="F115" s="76"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="77"/>
       <c r="G115" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="29"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="120"/>
       <c r="L115" s="16"/>
       <c r="M115" s="29"/>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="66"/>
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
       <c r="D116" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E116" s="56"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="E116" s="55"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="29"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="120"/>
       <c r="L116" s="16"/>
       <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="66"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
       <c r="D117" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E117" s="56"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="23" t="s">
         <v>230</v>
-      </c>
-      <c r="E117" s="55"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="29"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="120"/>
       <c r="L117" s="16"/>
       <c r="M117" s="29"/>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="66"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
       <c r="D118" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="56"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="E118" s="55"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="29"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="120"/>
       <c r="L118" s="16"/>
       <c r="M118" s="29"/>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="66"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
       <c r="D119" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E119" s="56"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="E119" s="55"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="29"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="120"/>
       <c r="L119" s="16"/>
       <c r="M119" s="29"/>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="67"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
       <c r="D120" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" s="57"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="E120" s="56"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="29"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="120"/>
       <c r="L120" s="16"/>
       <c r="M120" s="29"/>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="50"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="52"/>
-      <c r="H121" s="53" t="s">
+      <c r="A121" s="51"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K121" s="53"/>
-      <c r="L121" s="53" t="s">
+      <c r="I121" s="54"/>
+      <c r="J121" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M121" s="53"/>
+      <c r="M121" s="54"/>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="81" t="s">
+      <c r="A122" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="B122" s="83" t="s">
+      <c r="C122" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E122" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="E122" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="F122" s="57" t="s">
-        <v>467</v>
+      <c r="F122" s="58" t="s">
+        <v>466</v>
       </c>
       <c r="G122" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H122" s="16"/>
       <c r="I122" s="16"/>
@@ -56456,16 +57332,16 @@
       <c r="M122" s="29"/>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="82"/>
-      <c r="B123" s="84"/>
-      <c r="C123" s="84"/>
+      <c r="A123" s="83"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
       <c r="D123" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="58"/>
+        <v>392</v>
+      </c>
+      <c r="E123" s="85"/>
+      <c r="F123" s="59"/>
       <c r="G123" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
@@ -56475,16 +57351,16 @@
       <c r="M123" s="29"/>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="82"/>
-      <c r="B124" s="84"/>
-      <c r="C124" s="84"/>
+      <c r="A124" s="83"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
       <c r="D124" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="E124" s="84"/>
-      <c r="F124" s="58"/>
+        <v>393</v>
+      </c>
+      <c r="E124" s="85"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
@@ -56494,16 +57370,16 @@
       <c r="M124" s="29"/>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="82"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="84"/>
+      <c r="A125" s="83"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
       <c r="D125" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="E125" s="84"/>
-      <c r="F125" s="58"/>
+        <v>394</v>
+      </c>
+      <c r="E125" s="85"/>
+      <c r="F125" s="59"/>
       <c r="G125" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
@@ -56513,16 +57389,16 @@
       <c r="M125" s="29"/>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="82"/>
-      <c r="B126" s="84"/>
-      <c r="C126" s="84"/>
+      <c r="A126" s="83"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
       <c r="D126" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="E126" s="84"/>
-      <c r="F126" s="58"/>
+        <v>237</v>
+      </c>
+      <c r="E126" s="85"/>
+      <c r="F126" s="59"/>
       <c r="G126" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H126" s="16"/>
       <c r="I126" s="16"/>
@@ -56532,16 +57408,16 @@
       <c r="M126" s="29"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="82"/>
-      <c r="B127" s="84"/>
-      <c r="C127" s="84"/>
+      <c r="A127" s="83"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
       <c r="D127" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E127" s="84"/>
-      <c r="F127" s="58"/>
+        <v>238</v>
+      </c>
+      <c r="E127" s="85"/>
+      <c r="F127" s="59"/>
       <c r="G127" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
@@ -56551,16 +57427,16 @@
       <c r="M127" s="29"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="82"/>
-      <c r="B128" s="84"/>
-      <c r="C128" s="84"/>
+      <c r="A128" s="83"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
       <c r="D128" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E128" s="84"/>
-      <c r="F128" s="58"/>
+        <v>239</v>
+      </c>
+      <c r="E128" s="85"/>
+      <c r="F128" s="59"/>
       <c r="G128" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
@@ -56570,18 +57446,18 @@
       <c r="M128" s="29"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="82"/>
-      <c r="B129" s="84"/>
-      <c r="C129" s="65" t="s">
-        <v>389</v>
+      <c r="A129" s="83"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="66" t="s">
+        <v>388</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E129" s="84"/>
-      <c r="F129" s="58"/>
+        <v>240</v>
+      </c>
+      <c r="E129" s="85"/>
+      <c r="F129" s="59"/>
       <c r="G129" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
@@ -56591,16 +57467,16 @@
       <c r="M129" s="29"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="82"/>
-      <c r="B130" s="84"/>
-      <c r="C130" s="66"/>
+      <c r="A130" s="83"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="67"/>
       <c r="D130" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E130" s="84"/>
-      <c r="F130" s="58"/>
+        <v>241</v>
+      </c>
+      <c r="E130" s="85"/>
+      <c r="F130" s="59"/>
       <c r="G130" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
@@ -56610,16 +57486,16 @@
       <c r="M130" s="29"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="82"/>
-      <c r="B131" s="84"/>
-      <c r="C131" s="66"/>
+      <c r="A131" s="83"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="67"/>
       <c r="D131" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E131" s="84"/>
-      <c r="F131" s="58"/>
+        <v>242</v>
+      </c>
+      <c r="E131" s="85"/>
+      <c r="F131" s="59"/>
       <c r="G131" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
@@ -56629,16 +57505,16 @@
       <c r="M131" s="29"/>
     </row>
     <row r="132" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="82"/>
-      <c r="B132" s="84"/>
-      <c r="C132" s="66"/>
+      <c r="A132" s="83"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="67"/>
       <c r="D132" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E132" s="84"/>
-      <c r="F132" s="58"/>
+        <v>243</v>
+      </c>
+      <c r="E132" s="85"/>
+      <c r="F132" s="59"/>
       <c r="G132" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H132" s="16"/>
       <c r="I132" s="16"/>
@@ -56648,16 +57524,16 @@
       <c r="M132" s="29"/>
     </row>
     <row r="133" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="82"/>
-      <c r="B133" s="84"/>
-      <c r="C133" s="66"/>
+      <c r="A133" s="83"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="67"/>
       <c r="D133" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E133" s="84"/>
-      <c r="F133" s="58"/>
+        <v>244</v>
+      </c>
+      <c r="E133" s="85"/>
+      <c r="F133" s="59"/>
       <c r="G133" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
@@ -56667,16 +57543,16 @@
       <c r="M133" s="29"/>
     </row>
     <row r="134" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="82"/>
-      <c r="B134" s="84"/>
-      <c r="C134" s="67"/>
+      <c r="A134" s="83"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="68"/>
       <c r="D134" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E134" s="84"/>
-      <c r="F134" s="58"/>
+        <v>245</v>
+      </c>
+      <c r="E134" s="85"/>
+      <c r="F134" s="59"/>
       <c r="G134" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
@@ -56686,18 +57562,18 @@
       <c r="M134" s="29"/>
     </row>
     <row r="135" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="82"/>
-      <c r="B135" s="84"/>
-      <c r="C135" s="65" t="s">
-        <v>390</v>
+      <c r="A135" s="83"/>
+      <c r="B135" s="85"/>
+      <c r="C135" s="66" t="s">
+        <v>389</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E135" s="84"/>
-      <c r="F135" s="58"/>
+        <v>246</v>
+      </c>
+      <c r="E135" s="85"/>
+      <c r="F135" s="59"/>
       <c r="G135" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
@@ -56707,16 +57583,16 @@
       <c r="M135" s="29"/>
     </row>
     <row r="136" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="82"/>
-      <c r="B136" s="84"/>
-      <c r="C136" s="66"/>
+      <c r="A136" s="83"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="67"/>
       <c r="D136" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E136" s="84"/>
-      <c r="F136" s="58"/>
+        <v>247</v>
+      </c>
+      <c r="E136" s="85"/>
+      <c r="F136" s="59"/>
       <c r="G136" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
@@ -56726,16 +57602,16 @@
       <c r="M136" s="29"/>
     </row>
     <row r="137" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="82"/>
-      <c r="B137" s="84"/>
-      <c r="C137" s="66"/>
+      <c r="A137" s="83"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="67"/>
       <c r="D137" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E137" s="84"/>
-      <c r="F137" s="58"/>
+        <v>248</v>
+      </c>
+      <c r="E137" s="85"/>
+      <c r="F137" s="59"/>
       <c r="G137" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
@@ -56745,16 +57621,16 @@
       <c r="M137" s="29"/>
     </row>
     <row r="138" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="82"/>
-      <c r="B138" s="84"/>
-      <c r="C138" s="66"/>
+      <c r="A138" s="83"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="67"/>
       <c r="D138" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E138" s="84"/>
-      <c r="F138" s="58"/>
+        <v>249</v>
+      </c>
+      <c r="E138" s="85"/>
+      <c r="F138" s="59"/>
       <c r="G138" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H138" s="16"/>
       <c r="I138" s="16"/>
@@ -56764,16 +57640,16 @@
       <c r="M138" s="29"/>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="82"/>
-      <c r="B139" s="84"/>
-      <c r="C139" s="66"/>
+      <c r="A139" s="83"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="67"/>
       <c r="D139" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E139" s="84"/>
-      <c r="F139" s="58"/>
+        <v>250</v>
+      </c>
+      <c r="E139" s="85"/>
+      <c r="F139" s="59"/>
       <c r="G139" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
@@ -56783,16 +57659,16 @@
       <c r="M139" s="29"/>
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="82"/>
-      <c r="B140" s="84"/>
-      <c r="C140" s="66"/>
+      <c r="A140" s="83"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="67"/>
       <c r="D140" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E140" s="84"/>
-      <c r="F140" s="58"/>
+        <v>251</v>
+      </c>
+      <c r="E140" s="85"/>
+      <c r="F140" s="59"/>
       <c r="G140" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H140" s="16"/>
       <c r="I140" s="16"/>
@@ -56802,16 +57678,16 @@
       <c r="M140" s="29"/>
     </row>
     <row r="141" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="82"/>
-      <c r="B141" s="84"/>
-      <c r="C141" s="66"/>
+      <c r="A141" s="83"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="67"/>
       <c r="D141" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141" s="84"/>
-      <c r="F141" s="58"/>
+        <v>252</v>
+      </c>
+      <c r="E141" s="85"/>
+      <c r="F141" s="59"/>
       <c r="G141" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
@@ -56821,16 +57697,16 @@
       <c r="M141" s="29"/>
     </row>
     <row r="142" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="82"/>
-      <c r="B142" s="84"/>
-      <c r="C142" s="66"/>
+      <c r="A142" s="83"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="67"/>
       <c r="D142" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E142" s="84"/>
-      <c r="F142" s="58"/>
+        <v>253</v>
+      </c>
+      <c r="E142" s="85"/>
+      <c r="F142" s="59"/>
       <c r="G142" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
@@ -56840,16 +57716,16 @@
       <c r="M142" s="29"/>
     </row>
     <row r="143" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="82"/>
-      <c r="B143" s="84"/>
-      <c r="C143" s="66"/>
+      <c r="A143" s="83"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="67"/>
       <c r="D143" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E143" s="84"/>
-      <c r="F143" s="58"/>
+        <v>254</v>
+      </c>
+      <c r="E143" s="85"/>
+      <c r="F143" s="59"/>
       <c r="G143" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
@@ -56859,16 +57735,16 @@
       <c r="M143" s="29"/>
     </row>
     <row r="144" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="82"/>
-      <c r="B144" s="84"/>
-      <c r="C144" s="66"/>
+      <c r="A144" s="83"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="67"/>
       <c r="D144" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="E144" s="84"/>
-      <c r="F144" s="58"/>
+        <v>255</v>
+      </c>
+      <c r="E144" s="85"/>
+      <c r="F144" s="59"/>
       <c r="G144" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
@@ -56878,16 +57754,16 @@
       <c r="M144" s="29"/>
     </row>
     <row r="145" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="82"/>
-      <c r="B145" s="84"/>
-      <c r="C145" s="66"/>
+      <c r="A145" s="83"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="67"/>
       <c r="D145" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="E145" s="84"/>
-      <c r="F145" s="58"/>
+        <v>395</v>
+      </c>
+      <c r="E145" s="85"/>
+      <c r="F145" s="59"/>
       <c r="G145" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
@@ -56897,16 +57773,16 @@
       <c r="M145" s="29"/>
     </row>
     <row r="146" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="82"/>
-      <c r="B146" s="84"/>
-      <c r="C146" s="66"/>
+      <c r="A146" s="83"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="67"/>
       <c r="D146" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="E146" s="84"/>
-      <c r="F146" s="58"/>
+        <v>396</v>
+      </c>
+      <c r="E146" s="85"/>
+      <c r="F146" s="59"/>
       <c r="G146" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H146" s="16"/>
       <c r="I146" s="16"/>
@@ -56916,16 +57792,16 @@
       <c r="M146" s="29"/>
     </row>
     <row r="147" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="82"/>
-      <c r="B147" s="84"/>
-      <c r="C147" s="66"/>
+      <c r="A147" s="83"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="67"/>
       <c r="D147" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E147" s="84"/>
-      <c r="F147" s="58"/>
+        <v>248</v>
+      </c>
+      <c r="E147" s="85"/>
+      <c r="F147" s="59"/>
       <c r="G147" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
@@ -56935,16 +57811,16 @@
       <c r="M147" s="29"/>
     </row>
     <row r="148" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="82"/>
-      <c r="B148" s="84"/>
-      <c r="C148" s="67"/>
+      <c r="A148" s="83"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="68"/>
       <c r="D148" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E148" s="84"/>
-      <c r="F148" s="58"/>
+        <v>256</v>
+      </c>
+      <c r="E148" s="85"/>
+      <c r="F148" s="59"/>
       <c r="G148" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
@@ -56954,18 +57830,18 @@
       <c r="M148" s="29"/>
     </row>
     <row r="149" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="82"/>
-      <c r="B149" s="84"/>
-      <c r="C149" s="54" t="s">
-        <v>391</v>
+      <c r="A149" s="83"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="55" t="s">
+        <v>390</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E149" s="84"/>
-      <c r="F149" s="58"/>
+        <v>257</v>
+      </c>
+      <c r="E149" s="85"/>
+      <c r="F149" s="59"/>
       <c r="G149" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
@@ -56975,16 +57851,16 @@
       <c r="M149" s="29"/>
     </row>
     <row r="150" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="82"/>
-      <c r="B150" s="84"/>
-      <c r="C150" s="55"/>
+      <c r="A150" s="83"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="56"/>
       <c r="D150" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E150" s="84"/>
-      <c r="F150" s="58"/>
+        <v>258</v>
+      </c>
+      <c r="E150" s="85"/>
+      <c r="F150" s="59"/>
       <c r="G150" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H150" s="16"/>
       <c r="I150" s="16"/>
@@ -56994,16 +57870,16 @@
       <c r="M150" s="29"/>
     </row>
     <row r="151" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="82"/>
-      <c r="B151" s="84"/>
-      <c r="C151" s="55"/>
+      <c r="A151" s="83"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="56"/>
       <c r="D151" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="E151" s="84"/>
-      <c r="F151" s="58"/>
+        <v>259</v>
+      </c>
+      <c r="E151" s="85"/>
+      <c r="F151" s="59"/>
       <c r="G151" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
@@ -57013,16 +57889,16 @@
       <c r="M151" s="29"/>
     </row>
     <row r="152" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="82"/>
-      <c r="B152" s="84"/>
-      <c r="C152" s="55"/>
+      <c r="A152" s="83"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="56"/>
       <c r="D152" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E152" s="84"/>
-      <c r="F152" s="58"/>
+        <v>260</v>
+      </c>
+      <c r="E152" s="85"/>
+      <c r="F152" s="59"/>
       <c r="G152" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H152" s="16"/>
       <c r="I152" s="16"/>
@@ -57032,16 +57908,16 @@
       <c r="M152" s="29"/>
     </row>
     <row r="153" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="82"/>
-      <c r="B153" s="84"/>
-      <c r="C153" s="55"/>
+      <c r="A153" s="83"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="56"/>
       <c r="D153" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E153" s="84"/>
-      <c r="F153" s="58"/>
+        <v>261</v>
+      </c>
+      <c r="E153" s="85"/>
+      <c r="F153" s="59"/>
       <c r="G153" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
@@ -57051,16 +57927,16 @@
       <c r="M153" s="29"/>
     </row>
     <row r="154" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="82"/>
-      <c r="B154" s="84"/>
-      <c r="C154" s="55"/>
+      <c r="A154" s="83"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="56"/>
       <c r="D154" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E154" s="84"/>
-      <c r="F154" s="58"/>
+        <v>262</v>
+      </c>
+      <c r="E154" s="85"/>
+      <c r="F154" s="59"/>
       <c r="G154" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H154" s="16"/>
       <c r="I154" s="16"/>
@@ -57070,16 +57946,16 @@
       <c r="M154" s="29"/>
     </row>
     <row r="155" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="82"/>
-      <c r="B155" s="84"/>
-      <c r="C155" s="55"/>
+      <c r="A155" s="83"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="56"/>
       <c r="D155" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E155" s="84"/>
-      <c r="F155" s="58"/>
+        <v>263</v>
+      </c>
+      <c r="E155" s="85"/>
+      <c r="F155" s="59"/>
       <c r="G155" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
@@ -57089,16 +57965,16 @@
       <c r="M155" s="29"/>
     </row>
     <row r="156" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="82"/>
-      <c r="B156" s="84"/>
-      <c r="C156" s="55"/>
+      <c r="A156" s="83"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="56"/>
       <c r="D156" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E156" s="84"/>
-      <c r="F156" s="58"/>
+        <v>264</v>
+      </c>
+      <c r="E156" s="85"/>
+      <c r="F156" s="59"/>
       <c r="G156" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H156" s="16"/>
       <c r="I156" s="16"/>
@@ -57108,16 +57984,16 @@
       <c r="M156" s="29"/>
     </row>
     <row r="157" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="82"/>
-      <c r="B157" s="84"/>
-      <c r="C157" s="55"/>
+      <c r="A157" s="83"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="56"/>
       <c r="D157" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="E157" s="84"/>
-      <c r="F157" s="58"/>
+        <v>397</v>
+      </c>
+      <c r="E157" s="85"/>
+      <c r="F157" s="59"/>
       <c r="G157" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
@@ -57127,16 +58003,16 @@
       <c r="M157" s="29"/>
     </row>
     <row r="158" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="82"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="55"/>
+      <c r="A158" s="83"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="56"/>
       <c r="D158" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E158" s="84"/>
-      <c r="F158" s="59"/>
+        <v>265</v>
+      </c>
+      <c r="E158" s="85"/>
+      <c r="F158" s="60"/>
       <c r="G158" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H158" s="16"/>
       <c r="I158" s="16"/>
@@ -57146,47 +58022,47 @@
       <c r="M158" s="29"/>
     </row>
     <row r="159" spans="1:13" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="50"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="51"/>
-      <c r="E159" s="51"/>
-      <c r="F159" s="51"/>
-      <c r="G159" s="52"/>
-      <c r="H159" s="53" t="s">
+      <c r="A159" s="51"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I159" s="53"/>
-      <c r="J159" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K159" s="53"/>
-      <c r="L159" s="53" t="s">
+      <c r="I159" s="54"/>
+      <c r="J159" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K159" s="54"/>
+      <c r="L159" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M159" s="53"/>
+      <c r="M159" s="54"/>
     </row>
     <row r="160" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="54" t="s">
+      <c r="A160" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B160" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="C160" s="54" t="s">
+      <c r="D160" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="E160" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="E160" s="54" t="s">
+      <c r="F160" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="F160" s="65" t="s">
+      <c r="G160" s="35" t="s">
         <v>282</v>
-      </c>
-      <c r="G160" s="35" t="s">
-        <v>283</v>
       </c>
       <c r="H160" s="16"/>
       <c r="I160" s="16"/>
@@ -57196,16 +58072,16 @@
       <c r="M160" s="29"/>
     </row>
     <row r="161" spans="1:14" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A161" s="55"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="55"/>
+      <c r="A161" s="56"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="56"/>
       <c r="D161" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E161" s="56"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="44" t="s">
         <v>284</v>
-      </c>
-      <c r="E161" s="55"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="44" t="s">
-        <v>285</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
@@ -57215,16 +58091,16 @@
       <c r="M161" s="29"/>
     </row>
     <row r="162" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="55"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="55"/>
+      <c r="A162" s="56"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="56"/>
       <c r="D162" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E162" s="56"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="35" t="s">
         <v>286</v>
-      </c>
-      <c r="E162" s="55"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="35" t="s">
-        <v>287</v>
       </c>
       <c r="H162" s="16"/>
       <c r="I162" s="16"/>
@@ -57234,16 +58110,16 @@
       <c r="M162" s="29"/>
     </row>
     <row r="163" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="55"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="55"/>
+      <c r="A163" s="56"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="56"/>
       <c r="D163" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E163" s="56"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="34" t="s">
         <v>288</v>
-      </c>
-      <c r="E163" s="55"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="34" t="s">
-        <v>289</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
@@ -57253,16 +58129,16 @@
       <c r="M163" s="29"/>
     </row>
     <row r="164" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="55"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
+      <c r="A164" s="56"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="56"/>
       <c r="D164" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E164" s="56"/>
+      <c r="F164" s="67"/>
+      <c r="G164" s="35" t="s">
         <v>290</v>
-      </c>
-      <c r="E164" s="55"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="35" t="s">
-        <v>291</v>
       </c>
       <c r="H164" s="16"/>
       <c r="I164" s="16"/>
@@ -57272,16 +58148,16 @@
       <c r="M164" s="29"/>
     </row>
     <row r="165" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="55"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="55"/>
+      <c r="A165" s="56"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="56"/>
       <c r="D165" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E165" s="56"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="34" t="s">
         <v>292</v>
-      </c>
-      <c r="E165" s="55"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
@@ -57291,16 +58167,16 @@
       <c r="M165" s="29"/>
     </row>
     <row r="166" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="55"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="55"/>
+      <c r="A166" s="56"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="56"/>
       <c r="D166" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E166" s="56"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="35" t="s">
         <v>294</v>
-      </c>
-      <c r="E166" s="55"/>
-      <c r="F166" s="66"/>
-      <c r="G166" s="35" t="s">
-        <v>295</v>
       </c>
       <c r="H166" s="16"/>
       <c r="I166" s="16"/>
@@ -57310,16 +58186,16 @@
       <c r="M166" s="29"/>
     </row>
     <row r="167" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="55"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="55"/>
+      <c r="A167" s="56"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="56"/>
       <c r="D167" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E167" s="56"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="35" t="s">
         <v>296</v>
-      </c>
-      <c r="E167" s="55"/>
-      <c r="F167" s="66"/>
-      <c r="G167" s="35" t="s">
-        <v>297</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
@@ -57329,16 +58205,16 @@
       <c r="M167" s="29"/>
     </row>
     <row r="168" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="55"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="55"/>
+      <c r="A168" s="56"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="56"/>
       <c r="D168" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E168" s="56"/>
+      <c r="F168" s="67"/>
+      <c r="G168" s="34" t="s">
         <v>298</v>
-      </c>
-      <c r="E168" s="55"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="34" t="s">
-        <v>299</v>
       </c>
       <c r="H168" s="16"/>
       <c r="I168" s="16"/>
@@ -57348,16 +58224,16 @@
       <c r="M168" s="29"/>
     </row>
     <row r="169" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="55"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="55"/>
+      <c r="A169" s="56"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="56"/>
       <c r="D169" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" s="56"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="34" t="s">
         <v>300</v>
-      </c>
-      <c r="E169" s="55"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="34" t="s">
-        <v>301</v>
       </c>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
@@ -57367,16 +58243,16 @@
       <c r="M169" s="29"/>
     </row>
     <row r="170" spans="1:14" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="55"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="55"/>
+      <c r="A170" s="56"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="56"/>
       <c r="D170" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E170" s="56"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="35" t="s">
         <v>302</v>
-      </c>
-      <c r="E170" s="55"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="35" t="s">
-        <v>303</v>
       </c>
       <c r="H170" s="16"/>
       <c r="I170" s="16"/>
@@ -57386,16 +58262,16 @@
       <c r="M170" s="29"/>
     </row>
     <row r="171" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="55"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="55"/>
+      <c r="A171" s="56"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="56"/>
       <c r="D171" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="56"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="34" t="s">
         <v>304</v>
-      </c>
-      <c r="E171" s="55"/>
-      <c r="F171" s="66"/>
-      <c r="G171" s="34" t="s">
-        <v>305</v>
       </c>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
@@ -57405,16 +58281,16 @@
       <c r="M171" s="29"/>
     </row>
     <row r="172" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="55"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="55"/>
+      <c r="A172" s="56"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="56"/>
       <c r="D172" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E172" s="56"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="34" t="s">
         <v>306</v>
-      </c>
-      <c r="E172" s="55"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="34" t="s">
-        <v>307</v>
       </c>
       <c r="H172" s="16"/>
       <c r="I172" s="16"/>
@@ -57424,16 +58300,16 @@
       <c r="M172" s="29"/>
     </row>
     <row r="173" spans="1:14" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="56"/>
-      <c r="B173" s="56"/>
-      <c r="C173" s="56"/>
+      <c r="A173" s="57"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
       <c r="D173" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E173" s="57"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="34" t="s">
         <v>308</v>
-      </c>
-      <c r="E173" s="56"/>
-      <c r="F173" s="67"/>
-      <c r="G173" s="34" t="s">
-        <v>309</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
@@ -57471,29 +58347,29 @@
       <c r="N175" s="12"/>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="108" t="s">
+      <c r="A177" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="108"/>
-      <c r="C177" s="108"/>
-      <c r="D177" s="109" t="s">
+      <c r="B177" s="109"/>
+      <c r="C177" s="109"/>
+      <c r="D177" s="110" t="s">
         <v>48</v>
       </c>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
-      <c r="H177" s="53" t="s">
+      <c r="H177" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I177" s="53"/>
-      <c r="J177" s="53" t="s">
+      <c r="I177" s="54"/>
+      <c r="J177" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K177" s="53"/>
-      <c r="L177" s="53" t="s">
+      <c r="K177" s="54"/>
+      <c r="L177" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M177" s="53"/>
+      <c r="M177" s="54"/>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
@@ -57505,22 +58381,22 @@
       <c r="C178" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D178" s="108"/>
+      <c r="D178" s="109"/>
       <c r="E178" s="17"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
-      <c r="H178" s="53" t="s">
+      <c r="H178" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I178" s="53"/>
-      <c r="J178" s="53" t="s">
+      <c r="I178" s="54"/>
+      <c r="J178" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="K178" s="53"/>
-      <c r="L178" s="53" t="s">
+      <c r="K178" s="54"/>
+      <c r="L178" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M178" s="53"/>
+      <c r="M178" s="54"/>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
@@ -57550,26 +58426,26 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
+      <c r="A180" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B180" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C180" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="B180" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="C180" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="D180" s="23" t="s">
+      <c r="E180" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="E180" s="54" t="s">
+      <c r="F180" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="F180" s="57" t="s">
+      <c r="G180" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="G180" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="H180" s="16"/>
       <c r="I180" s="16"/>
@@ -57579,16 +58455,16 @@
       <c r="M180" s="29"/>
     </row>
     <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
+      <c r="A181" s="56"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="56"/>
       <c r="D181" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E181" s="56"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="23" t="s">
         <v>330</v>
-      </c>
-      <c r="E181" s="55"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="23" t="s">
-        <v>331</v>
       </c>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
@@ -57598,20 +58474,20 @@
       <c r="M181" s="29"/>
     </row>
     <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="55"/>
-      <c r="B182" s="57" t="s">
+      <c r="A182" s="56"/>
+      <c r="B182" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C182" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="D182" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="D182" s="23" t="s">
+      <c r="E182" s="56"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="23" t="s">
         <v>334</v>
-      </c>
-      <c r="E182" s="55"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="23" t="s">
-        <v>335</v>
       </c>
       <c r="H182" s="16"/>
       <c r="I182" s="16"/>
@@ -57621,18 +58497,18 @@
       <c r="M182" s="29"/>
     </row>
     <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="55"/>
-      <c r="B183" s="58"/>
+      <c r="A183" s="56"/>
+      <c r="B183" s="59"/>
       <c r="C183" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D183" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D183" s="23" t="s">
+      <c r="E183" s="57"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="E183" s="56"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
@@ -57642,26 +58518,26 @@
       <c r="M183" s="29"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="54" t="s">
+      <c r="A184" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="B184" s="66" t="s">
+        <v>473</v>
+      </c>
+      <c r="C184" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="B184" s="65" t="s">
+      <c r="D184" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="C184" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="D184" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="E184" s="54" t="s">
+      <c r="E184" s="55" t="s">
+        <v>490</v>
+      </c>
+      <c r="F184" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="F184" s="75" t="s">
-        <v>494</v>
-      </c>
       <c r="G184" s="23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
@@ -57671,16 +58547,16 @@
       <c r="M184" s="29"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="55"/>
-      <c r="B185" s="66"/>
-      <c r="C185" s="67"/>
+      <c r="A185" s="56"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="68"/>
       <c r="D185" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="E185" s="60"/>
-      <c r="F185" s="76"/>
+        <v>476</v>
+      </c>
+      <c r="E185" s="61"/>
+      <c r="F185" s="77"/>
       <c r="G185" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
@@ -57690,18 +58566,18 @@
       <c r="M185" s="29"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="55"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="68" t="s">
-        <v>483</v>
+      <c r="A186" s="56"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="69" t="s">
+        <v>481</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="E186" s="60"/>
-      <c r="F186" s="76"/>
+        <v>482</v>
+      </c>
+      <c r="E186" s="61"/>
+      <c r="F186" s="77"/>
       <c r="G186" s="23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H186" s="16"/>
       <c r="I186" s="16"/>
@@ -57711,16 +58587,16 @@
       <c r="M186" s="29"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="55"/>
-      <c r="B187" s="66"/>
-      <c r="C187" s="61"/>
+      <c r="A187" s="56"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="62"/>
       <c r="D187" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="E187" s="60"/>
-      <c r="F187" s="76"/>
+        <v>483</v>
+      </c>
+      <c r="E187" s="61"/>
+      <c r="F187" s="77"/>
       <c r="G187" s="23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H187" s="16"/>
       <c r="I187" s="16"/>
@@ -57730,18 +58606,18 @@
       <c r="M187" s="29"/>
     </row>
     <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="55"/>
-      <c r="B188" s="66"/>
-      <c r="C188" s="65" t="s">
-        <v>479</v>
+      <c r="A188" s="56"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="66" t="s">
+        <v>477</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="E188" s="60"/>
-      <c r="F188" s="76"/>
+        <v>478</v>
+      </c>
+      <c r="E188" s="61"/>
+      <c r="F188" s="77"/>
       <c r="G188" s="23" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
@@ -57751,16 +58627,16 @@
       <c r="M188" s="29"/>
     </row>
     <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="55"/>
-      <c r="B189" s="66"/>
-      <c r="C189" s="67"/>
+      <c r="A189" s="56"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="68"/>
       <c r="D189" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="E189" s="60"/>
-      <c r="F189" s="76"/>
+        <v>479</v>
+      </c>
+      <c r="E189" s="61"/>
+      <c r="F189" s="77"/>
       <c r="G189" s="23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H189" s="16"/>
       <c r="I189" s="16"/>
@@ -57770,18 +58646,18 @@
       <c r="M189" s="29"/>
     </row>
     <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="55"/>
-      <c r="B190" s="66"/>
-      <c r="C190" s="65" t="s">
-        <v>482</v>
+      <c r="A190" s="56"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="66" t="s">
+        <v>480</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="E190" s="60"/>
-      <c r="F190" s="76"/>
+        <v>484</v>
+      </c>
+      <c r="E190" s="61"/>
+      <c r="F190" s="77"/>
       <c r="G190" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H190" s="16"/>
       <c r="I190" s="16"/>
@@ -57791,16 +58667,16 @@
       <c r="M190" s="29"/>
     </row>
     <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="55"/>
-      <c r="B191" s="66"/>
-      <c r="C191" s="66"/>
+      <c r="A191" s="56"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="67"/>
       <c r="D191" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="E191" s="60"/>
-      <c r="F191" s="76"/>
+        <v>485</v>
+      </c>
+      <c r="E191" s="61"/>
+      <c r="F191" s="77"/>
       <c r="G191" s="23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H191" s="16"/>
       <c r="I191" s="16"/>
@@ -57810,16 +58686,16 @@
       <c r="M191" s="29"/>
     </row>
     <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="55"/>
-      <c r="B192" s="66"/>
-      <c r="C192" s="67"/>
+      <c r="A192" s="56"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="68"/>
       <c r="D192" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="E192" s="60"/>
-      <c r="F192" s="76"/>
+        <v>486</v>
+      </c>
+      <c r="E192" s="61"/>
+      <c r="F192" s="77"/>
       <c r="G192" s="23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H192" s="16"/>
       <c r="I192" s="16"/>
@@ -57829,18 +58705,18 @@
       <c r="M192" s="29"/>
     </row>
     <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="56"/>
-      <c r="B193" s="67"/>
+      <c r="A193" s="57"/>
+      <c r="B193" s="68"/>
       <c r="C193" s="49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="E193" s="61"/>
-      <c r="F193" s="77"/>
+        <v>488</v>
+      </c>
+      <c r="E193" s="62"/>
+      <c r="F193" s="78"/>
       <c r="G193" s="23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H193" s="16"/>
       <c r="I193" s="16"/>
@@ -57850,82 +58726,82 @@
       <c r="M193" s="29"/>
     </row>
     <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="69" t="s">
-        <v>491</v>
-      </c>
-      <c r="B194" s="70"/>
-      <c r="C194" s="70"/>
-      <c r="D194" s="70"/>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="70"/>
-      <c r="H194" s="70"/>
-      <c r="I194" s="70"/>
-      <c r="J194" s="70"/>
-      <c r="K194" s="70"/>
-      <c r="L194" s="70"/>
-      <c r="M194" s="71"/>
+      <c r="A194" s="70" t="s">
+        <v>489</v>
+      </c>
+      <c r="B194" s="71"/>
+      <c r="C194" s="71"/>
+      <c r="D194" s="71"/>
+      <c r="E194" s="71"/>
+      <c r="F194" s="71"/>
+      <c r="G194" s="71"/>
+      <c r="H194" s="71"/>
+      <c r="I194" s="71"/>
+      <c r="J194" s="71"/>
+      <c r="K194" s="71"/>
+      <c r="L194" s="71"/>
+      <c r="M194" s="72"/>
     </row>
     <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="72"/>
-      <c r="B195" s="73"/>
-      <c r="C195" s="73"/>
-      <c r="D195" s="73"/>
-      <c r="E195" s="73"/>
-      <c r="F195" s="73"/>
-      <c r="G195" s="73"/>
-      <c r="H195" s="73"/>
-      <c r="I195" s="73"/>
-      <c r="J195" s="73"/>
-      <c r="K195" s="73"/>
-      <c r="L195" s="73"/>
-      <c r="M195" s="74"/>
+      <c r="A195" s="73"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="74"/>
+      <c r="G195" s="74"/>
+      <c r="H195" s="74"/>
+      <c r="I195" s="74"/>
+      <c r="J195" s="74"/>
+      <c r="K195" s="74"/>
+      <c r="L195" s="74"/>
+      <c r="M195" s="75"/>
     </row>
     <row r="196" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="50"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="51"/>
-      <c r="E196" s="51"/>
-      <c r="F196" s="51"/>
-      <c r="G196" s="52"/>
-      <c r="H196" s="53" t="s">
+      <c r="A196" s="51"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I196" s="53"/>
-      <c r="J196" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="K196" s="53"/>
-      <c r="L196" s="53" t="s">
+      <c r="I196" s="54"/>
+      <c r="J196" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="K196" s="54"/>
+      <c r="L196" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M196" s="53"/>
+      <c r="M196" s="54"/>
     </row>
     <row r="197" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="78" t="s">
+      <c r="A197" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B197" s="54" t="s">
+      <c r="B197" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C197" s="54" t="s">
+      <c r="C197" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E197" s="54" t="s">
+      <c r="E197" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F197" s="57" t="s">
-        <v>473</v>
+      <c r="F197" s="58" t="s">
+        <v>471</v>
       </c>
       <c r="G197" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H197" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="H197" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="I197" s="16"/>
       <c r="J197" s="16"/>
@@ -57934,19 +58810,19 @@
       <c r="M197" s="29"/>
     </row>
     <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="79"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="55"/>
+      <c r="A198" s="80"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="56"/>
       <c r="D198" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="E198" s="60"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="23" t="s">
-        <v>342</v>
-      </c>
       <c r="H198" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
@@ -57955,19 +58831,19 @@
       <c r="M198" s="29"/>
     </row>
     <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="79"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="55"/>
+      <c r="A199" s="80"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="56"/>
       <c r="D199" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E199" s="61"/>
+      <c r="F199" s="61"/>
+      <c r="G199" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E199" s="60"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="23" t="s">
-        <v>173</v>
-      </c>
       <c r="H199" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I199" s="16"/>
       <c r="J199" s="16"/>
@@ -57976,19 +58852,19 @@
       <c r="M199" s="29"/>
     </row>
     <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="79"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="56"/>
+      <c r="A200" s="80"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="57"/>
       <c r="D200" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E200" s="61"/>
+      <c r="F200" s="61"/>
+      <c r="G200" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="E200" s="60"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="23" t="s">
-        <v>344</v>
-      </c>
       <c r="H200" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I200" s="16"/>
       <c r="J200" s="16"/>
@@ -57997,21 +58873,21 @@
       <c r="M200" s="29"/>
     </row>
     <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="79"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="54" t="s">
-        <v>176</v>
+      <c r="A201" s="80"/>
+      <c r="B201" s="56"/>
+      <c r="C201" s="55" t="s">
+        <v>175</v>
       </c>
       <c r="D201" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E201" s="61"/>
+      <c r="F201" s="61"/>
+      <c r="G201" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="23" t="s">
-        <v>346</v>
-      </c>
       <c r="H201" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I201" s="16"/>
       <c r="J201" s="16"/>
@@ -58020,19 +58896,19 @@
       <c r="M201" s="29"/>
     </row>
     <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="79"/>
-      <c r="B202" s="56"/>
-      <c r="C202" s="56"/>
+      <c r="A202" s="80"/>
+      <c r="B202" s="57"/>
+      <c r="C202" s="57"/>
       <c r="D202" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E202" s="60"/>
-      <c r="F202" s="60"/>
+        <v>184</v>
+      </c>
+      <c r="E202" s="61"/>
+      <c r="F202" s="61"/>
       <c r="G202" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H202" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I202" s="16"/>
       <c r="J202" s="16"/>
@@ -58041,23 +58917,23 @@
       <c r="M202" s="29"/>
     </row>
     <row r="203" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="80"/>
+      <c r="A203" s="81"/>
       <c r="B203" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="D203" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D203" s="23" t="s">
+      <c r="E203" s="62"/>
+      <c r="F203" s="62"/>
+      <c r="G203" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E203" s="61"/>
-      <c r="F203" s="61"/>
-      <c r="G203" s="25" t="s">
-        <v>190</v>
-      </c>
       <c r="H203" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I203" s="16"/>
       <c r="J203" s="16"/>
@@ -58066,26 +58942,26 @@
       <c r="M203" s="29"/>
     </row>
     <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B204" s="54" t="s">
+      <c r="A204" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B204" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C204" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="C204" s="54" t="s">
+      <c r="D204" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="E204" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="F204" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="E204" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="F204" s="45" t="s">
+      <c r="G204" s="46" t="s">
         <v>313</v>
-      </c>
-      <c r="G204" s="46" t="s">
-        <v>314</v>
       </c>
       <c r="H204" s="16"/>
       <c r="I204" s="16"/>
@@ -58095,18 +58971,18 @@
       <c r="M204" s="29"/>
     </row>
     <row r="205" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="55"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="56"/>
+      <c r="A205" s="56"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="57"/>
       <c r="D205" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="E205" s="64"/>
+      <c r="F205" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G205" s="41" t="s">
         <v>315</v>
-      </c>
-      <c r="E205" s="63"/>
-      <c r="F205" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="G205" s="41" t="s">
-        <v>316</v>
       </c>
       <c r="H205" s="16"/>
       <c r="I205" s="16"/>
@@ -58116,20 +58992,20 @@
       <c r="M205" s="29"/>
     </row>
     <row r="206" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="55"/>
-      <c r="B206" s="55"/>
+      <c r="A206" s="56"/>
+      <c r="B206" s="56"/>
       <c r="C206" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D206" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E206" s="64"/>
+      <c r="F206" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="E206" s="63"/>
-      <c r="F206" s="47" t="s">
+      <c r="G206" s="47" t="s">
         <v>318</v>
-      </c>
-      <c r="G206" s="47" t="s">
-        <v>319</v>
       </c>
       <c r="H206" s="16"/>
       <c r="I206" s="16"/>
@@ -58139,20 +59015,20 @@
       <c r="M206" s="29"/>
     </row>
     <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="56"/>
-      <c r="B207" s="56"/>
+      <c r="A207" s="57"/>
+      <c r="B207" s="57"/>
       <c r="C207" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D207" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D207" s="23" t="s">
+      <c r="E207" s="65"/>
+      <c r="F207" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="E207" s="64"/>
-      <c r="F207" s="46" t="s">
+      <c r="G207" s="46" t="s">
         <v>322</v>
-      </c>
-      <c r="G207" s="46" t="s">
-        <v>323</v>
       </c>
       <c r="H207" s="16"/>
       <c r="I207" s="16"/>
@@ -58466,37 +59342,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="112" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
+      <c r="A2" s="114"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -58506,12 +59382,12 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">

--- a/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 민기.xlsx
+++ b/6. 1조 테스트시나리오/1조 PerfectSolution 통합테스트 시나리오 - 민기.xlsx
@@ -53499,114 +53499,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조치대기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>항목에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따른</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조치코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미출력</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>정상동작</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -53695,6 +53587,143 @@
   </si>
   <si>
     <t>Ｘ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조치코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">미출력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; url </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(localhost)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -54770,7 +54799,7 @@
   </sheetPr>
   <dimension ref="A1:N226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
       <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
@@ -56489,7 +56518,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K84" s="118" t="s">
         <v>508</v>
@@ -56512,7 +56541,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
       <c r="J85" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K85" s="48" t="s">
         <v>512</v>
@@ -56535,7 +56564,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
       <c r="J86" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K86" s="47" t="s">
         <v>513</v>
@@ -56558,7 +56587,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
       <c r="J87" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K87" s="47" t="s">
         <v>514</v>
@@ -56581,7 +56610,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
       <c r="J88" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K88" s="47" t="s">
         <v>506</v>
@@ -56604,7 +56633,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
       <c r="J89" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K89" s="47" t="s">
         <v>507</v>
@@ -56627,7 +56656,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
       <c r="J90" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K90" s="47" t="s">
         <v>509</v>
@@ -56650,7 +56679,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K91" s="47" t="s">
         <v>510</v>
@@ -56677,7 +56706,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
       <c r="J92" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K92" s="47" t="s">
         <v>508</v>
@@ -56700,7 +56729,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
       <c r="J93" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K93" s="47" t="s">
         <v>511</v>
@@ -56723,7 +56752,7 @@
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
       <c r="J94" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K94" s="41" t="s">
         <v>516</v>
@@ -56746,7 +56775,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
       <c r="J95" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K95" s="47" t="s">
         <v>515</v>
@@ -56769,7 +56798,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
       <c r="J96" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K96" s="47" t="s">
         <v>517</v>
@@ -56798,7 +56827,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
       <c r="J97" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K97" s="118" t="s">
         <v>509</v>
@@ -56821,7 +56850,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
       <c r="J98" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K98" s="118" t="s">
         <v>508</v>
@@ -56844,7 +56873,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
       <c r="J99" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K99" s="118" t="s">
         <v>509</v>
@@ -56867,10 +56896,10 @@
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
       <c r="J100" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K100" s="118" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="29"/>
@@ -56890,7 +56919,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
       <c r="J101" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K101" s="119" t="s">
         <v>509</v>
@@ -56898,7 +56927,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="29"/>
     </row>
-    <row r="102" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -56913,10 +56942,10 @@
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
       <c r="J102" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="K102" s="48" t="s">
         <v>526</v>
-      </c>
-      <c r="K102" s="48" t="s">
-        <v>519</v>
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="29"/>
@@ -56936,10 +56965,10 @@
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
       <c r="J103" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K103" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L103" s="16"/>
       <c r="M103" s="29"/>
